--- a/data/trans_camb/P21_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P21_R-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-1.525609193865199</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.334542236248956</v>
+        <v>7.334542236248962</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>3.452998069503832</v>
@@ -655,7 +655,7 @@
         <v>-0.2540353755605546</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.836044595727088</v>
+        <v>1.836044595727085</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.6797907090072164</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.817589922472351</v>
+        <v>-8.501270552032025</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.530544338545055</v>
+        <v>-6.649739121368327</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.611443095077929</v>
+        <v>1.459543322374679</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.432979234056641</v>
+        <v>-3.798373218967314</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.800241372441761</v>
+        <v>-6.447409113673006</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.147734464701772</v>
+        <v>-3.869303860754757</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.870592132258423</v>
+        <v>-5.14448929349392</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.543572404340412</v>
+        <v>-4.692549119839791</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.511435496832363</v>
+        <v>1.033140284928159</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.499790036846397</v>
+        <v>0.7536214592107887</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.382485307580824</v>
+        <v>3.646367856907356</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.84112350188603</v>
+        <v>12.36257469371071</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.94749514599041</v>
+        <v>10.6239650941704</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.255014538339182</v>
+        <v>6.546791454120239</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.993335338071343</v>
+        <v>7.915420577598105</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.84608291017449</v>
+        <v>3.244379169076166</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.487984655147601</v>
+        <v>3.243071036891811</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.205416126706051</v>
+        <v>8.742998488917706</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.09247792204505934</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.4445982810588375</v>
+        <v>0.4445982810588378</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1544754678786993</v>
@@ -760,7 +760,7 @@
         <v>-0.01136468445900306</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08213843224414363</v>
+        <v>0.08213843224414351</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.0361626571818055</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4596925563817147</v>
+        <v>-0.450264025390556</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3435596439467921</v>
+        <v>-0.344718047234135</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1281851016207443</v>
+        <v>0.07923585373947548</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.129477597633854</v>
+        <v>-0.1462138154309978</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2659500431068358</v>
+        <v>-0.251684835336188</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1541158293417891</v>
+        <v>-0.1537299464007387</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2376276673310224</v>
+        <v>-0.2431132210856652</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2211092358526127</v>
+        <v>-0.2301084216253545</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.07578702760547852</v>
+        <v>0.05231053938877431</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1154789811761592</v>
+        <v>0.05718296777907077</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2509368511319952</v>
+        <v>0.2570073777572056</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9134563311706178</v>
+        <v>0.9031945543368235</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5889543025901859</v>
+        <v>0.5660964400944437</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3359269123009047</v>
+        <v>0.3464220942228321</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4403812903795951</v>
+        <v>0.4248291938217868</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2266002178599896</v>
+        <v>0.1883757684559901</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2028070012151487</v>
+        <v>0.1929061730685167</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5674810170520463</v>
+        <v>0.5297163176206685</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-3.596399160363134</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.247965189596131</v>
+        <v>-1.247965189596137</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.207150915634841</v>
@@ -878,7 +878,7 @@
         <v>-3.050075577876057</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.3135149075787047</v>
+        <v>-0.3135149075787019</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.121108914192003</v>
+        <v>-6.825769575267026</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.483738059511657</v>
+        <v>-9.263737329779726</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.810246925146844</v>
+        <v>-6.749150121471796</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.423555201099363</v>
+        <v>-5.713235198339768</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-8.388633913443359</v>
+        <v>-8.217994703916089</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.144422404284469</v>
+        <v>-4.928211635397872</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.915230964657924</v>
+        <v>-4.784441303870958</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-7.120046765282842</v>
+        <v>-6.907043398543819</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.36327340658906</v>
+        <v>-4.591818815687629</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.121217226436054</v>
+        <v>4.341379444130465</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.837527042163193</v>
+        <v>1.604836901951554</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.986671253435375</v>
+        <v>3.799964599747526</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.557177732875626</v>
+        <v>7.844416396646624</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.13837015177128</v>
+        <v>4.119263875764316</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.804853937963228</v>
+        <v>7.576429925505868</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.080330147036645</v>
+        <v>3.722296890754015</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.474360908626745</v>
+        <v>1.199542154310066</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.681864356956087</v>
+        <v>3.68134322559471</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1969147005404827</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.06833020491792573</v>
+        <v>-0.06833020491792603</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.04908471629541435</v>
@@ -983,7 +983,7 @@
         <v>-0.1421985642215846</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.01461648034007051</v>
+        <v>-0.01461648034007038</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.335644472734377</v>
+        <v>-0.328183467895259</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4514665415694749</v>
+        <v>-0.4297586593570457</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3214551114888343</v>
+        <v>-0.3191387979398655</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1985412007235624</v>
+        <v>-0.19750090392787</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3087226890659631</v>
+        <v>-0.3074267200293147</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1757798428521943</v>
+        <v>-0.1744091045132666</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2082892438313088</v>
+        <v>-0.2034318771375057</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3021139369618799</v>
+        <v>-0.3017238858431385</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1831621934762955</v>
+        <v>-0.189136927576405</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.272482544392161</v>
+        <v>0.2899618343044288</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1134948125310884</v>
+        <v>0.1028553699379244</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2672166926441796</v>
+        <v>0.2455353044617864</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3594839430551693</v>
+        <v>0.3508089923605771</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1927876952227676</v>
+        <v>0.18683510519171</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.316324698448107</v>
+        <v>0.3604151898545352</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2111361036529141</v>
+        <v>0.1926996433207936</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.07462770514736089</v>
+        <v>0.06366058609664649</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1949809644774395</v>
+        <v>0.1921992886975521</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.332654235480049</v>
+        <v>2.082087243558819</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.420646107829398</v>
+        <v>-5.0374916079157</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.154650071004377</v>
+        <v>-2.258707648076657</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-17.54706516066031</v>
+        <v>-16.13770896482297</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-18.61821383046932</v>
+        <v>-18.54128225662661</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.419985512319063</v>
+        <v>-5.411020410845208</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.9724604551155871</v>
+        <v>-1.379654434015188</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.792494661241459</v>
+        <v>-6.568767930210638</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.026852233366361</v>
+        <v>-0.8179473487152209</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.39264752284927</v>
+        <v>11.64693676797127</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.389275587116935</v>
+        <v>4.51731830062498</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.853016913894153</v>
+        <v>7.790260068553842</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6011223641149073</v>
+        <v>1.045669741297051</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4162678495757964</v>
+        <v>0.758026371372901</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.81312718040753</v>
+        <v>12.79956423759646</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.608775209740483</v>
+        <v>7.108751739843713</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.737685143766126</v>
+        <v>1.999491879969049</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.745299665043466</v>
+        <v>7.672351978195191</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1156807594092651</v>
+        <v>0.1035814397749537</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2693207292221956</v>
+        <v>-0.2521590702798987</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1058123302693069</v>
+        <v>-0.1114742833061503</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5147836040300298</v>
+        <v>-0.481995175070574</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5652048284655318</v>
+        <v>-0.5643531102259216</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1685369669246956</v>
+        <v>-0.1565086040268848</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.04340209442859227</v>
+        <v>-0.06058169143856071</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3023552639138211</v>
+        <v>-0.2946763203856078</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.04452134441659173</v>
+        <v>-0.03991100106250657</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8249888671546601</v>
+        <v>0.7438503196068424</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2868419638511117</v>
+        <v>0.2952085876923749</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5217707544113556</v>
+        <v>0.522797735749121</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.02805519333622722</v>
+        <v>0.0492485794648506</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.02789990444291883</v>
+        <v>0.03595913268194909</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6064100540154546</v>
+        <v>0.5954814849853313</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4227743524565545</v>
+        <v>0.4015154316460789</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.09466753428128566</v>
+        <v>0.1120649383108235</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4304776008104284</v>
+        <v>0.4186186739206605</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-1.970114886859492</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.099949270666834</v>
+        <v>2.09994927066684</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.589211709512971</v>
@@ -1306,7 +1306,7 @@
         <v>-1.221693891920181</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.701096677076482</v>
+        <v>3.70109667707649</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4137587961193602</v>
+        <v>0.7021557564625881</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.696494481245988</v>
+        <v>-4.854544620137396</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3631541882685523</v>
+        <v>0.3000155235167607</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.313873884448836</v>
+        <v>-1.82970042882496</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.723119745913506</v>
+        <v>-6.430460150464769</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.07956311393769</v>
+        <v>-2.428061283821221</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3274311134672723</v>
+        <v>0.911452707902179</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.97556042267372</v>
+        <v>-3.968879192866983</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.8837390308913294</v>
+        <v>0.9587316977798824</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.223911348036005</v>
+        <v>7.233392627364846</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.894813424233998</v>
+        <v>1.570870215269264</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.434955966297534</v>
+        <v>7.552945218189447</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.982688115739982</v>
+        <v>7.661507735641822</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.444294100939478</v>
+        <v>2.626789036306385</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.782967306414315</v>
+        <v>6.204597130377884</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.031573518440612</v>
+        <v>6.430609754447823</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.456161645504652</v>
+        <v>1.735984784505507</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.263589198195174</v>
+        <v>6.438882872874904</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.07467379160694254</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07959493899002749</v>
+        <v>0.0795949389900277</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1694976467568352</v>
@@ -1411,7 +1411,7 @@
         <v>-0.05769351503808853</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1747813246906881</v>
+        <v>0.1747813246906884</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.01967092724842158</v>
+        <v>0.03185354263765451</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2337292039780188</v>
+        <v>-0.245867316415789</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.02014840448358329</v>
+        <v>0.01431284496068012</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.08460193726019984</v>
+        <v>-0.06585993596543442</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2291374383062774</v>
+        <v>-0.2190083257893604</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.07148633374518776</v>
+        <v>-0.08323678424670826</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01399647277847279</v>
+        <v>0.04206707686878252</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1741355370404375</v>
+        <v>-0.1781479716092544</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.03843660731882257</v>
+        <v>0.0460657701039295</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4250033502851291</v>
+        <v>0.4507782038815404</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1105092222683419</v>
+        <v>0.09617939447494341</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4463843592449961</v>
+        <v>0.4539417103653943</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2822815722171761</v>
+        <v>0.3082005936009355</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1042843787283916</v>
+        <v>0.1104645091243238</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2930137817589</v>
+        <v>0.2614859903247221</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3024137468155998</v>
+        <v>0.3253827874396519</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.07398995042195144</v>
+        <v>0.08747931851013652</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3157159590487735</v>
+        <v>0.3276630105776642</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>2.202800102331895</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5.252115365085411</v>
+        <v>5.252115365085405</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>6.305375561443993</v>
@@ -1520,7 +1520,7 @@
         <v>-1.724993081918833</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.789806577589684</v>
+        <v>1.789806577589681</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.471275381536073</v>
+        <v>1.959512605607155</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.900352112463451</v>
+        <v>-2.849618169690903</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.130318320297673</v>
+        <v>-0.3105951303721722</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.253663920302623</v>
+        <v>1.344476947938515</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-8.769957281684896</v>
+        <v>-8.395759843562535</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.666842337019579</v>
+        <v>-4.720700267892791</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.514671293900302</v>
+        <v>2.978757580823512</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.05619823225861</v>
+        <v>-5.332361611500317</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.284724920004439</v>
+        <v>-1.826362305313658</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.56517571102079</v>
+        <v>12.81200150775556</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.08447385477294</v>
+        <v>6.496686426126328</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.11228313117923</v>
+        <v>9.996341749039269</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11.0058204307806</v>
+        <v>11.37602488816222</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.100532887565991</v>
+        <v>1.511781086333972</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.186016468085901</v>
+        <v>4.858992023288004</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.989348205069927</v>
+        <v>10.69486285874141</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.784245855185906</v>
+        <v>1.650018884647459</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.163806176866627</v>
+        <v>5.302373053718419</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1573507046103193</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.375169790720464</v>
+        <v>0.3751697907204636</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2608917950669601</v>
@@ -1625,7 +1625,7 @@
         <v>-0.08501374834190185</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.08820798620168011</v>
+        <v>0.08820798620167997</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.08252144300220944</v>
+        <v>0.10296800615625</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1676106594127356</v>
+        <v>-0.1641380816791772</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.008658447952310643</v>
+        <v>-0.02670360377698948</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.03787402691867136</v>
+        <v>0.05578532016696761</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3150723495065932</v>
+        <v>-0.315999342503555</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1719818192329962</v>
+        <v>-0.1734667455076198</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1088931462595705</v>
+        <v>0.1335493516041338</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.224331141257714</v>
+        <v>-0.2370477878271572</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.05949868376318117</v>
+        <v>-0.08281011690044338</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.11770154157455</v>
+        <v>1.16635543172973</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6317325098510389</v>
+        <v>0.5867027042185351</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8555707324395421</v>
+        <v>0.8688851415696919</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4977549015913215</v>
+        <v>0.5410358449221192</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.05650874046523972</v>
+        <v>0.0720185433618511</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.197326140461982</v>
+        <v>0.2271408488928412</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5416155305058749</v>
+        <v>0.5796067278830928</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.101822047285111</v>
+        <v>0.09215166873870552</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.285237049403932</v>
+        <v>0.296186231753239</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-3.121051178773321</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-2.529519034239408</v>
+        <v>-2.529519034239411</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>4.57019683330068</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1.109454130712574</v>
+        <v>0.8199753292632525</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.8475303586743893</v>
+        <v>0.4094157888321208</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.629698877929991</v>
+        <v>-5.130311439446685</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.5129013197968324</v>
+        <v>0.3832852593782921</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-6.521655028962218</v>
+        <v>-6.735457803090564</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-6.109607001681649</v>
+        <v>-6.41500168167867</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.197476904004399</v>
+        <v>1.312750606782412</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-4.122894092860572</v>
+        <v>-4.352694743346806</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-4.812263192943013</v>
+        <v>-4.868500485198051</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>14.23852200805521</v>
+        <v>14.08063179195649</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>13.64782034980162</v>
+        <v>13.55134253565349</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>13.1601015463083</v>
+        <v>12.5580264126815</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.92069020014748</v>
+        <v>7.666571212849591</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.2753329200565092</v>
+        <v>0.1676027500974567</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.9742535567590873</v>
+        <v>0.9485857051024023</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.732608884449023</v>
+        <v>7.742746497288051</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.198314742469381</v>
+        <v>1.999287413556582</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.063549611992249</v>
+        <v>1.664983804661323</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.1336541281790179</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.1083226906155306</v>
+        <v>-0.1083226906155307</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2101445021027304</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.04347052396564848</v>
+        <v>0.03529126357186155</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.02453870907521399</v>
+        <v>0.02317420816766487</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.286413632105653</v>
+        <v>-0.3055097124457536</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.01563657084219189</v>
+        <v>0.009490840849568827</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2662419595802938</v>
+        <v>-0.2629118521527738</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2418800923744606</v>
+        <v>-0.2581133189382531</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05576496028476093</v>
+        <v>0.05814156074287561</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1801907164591494</v>
+        <v>-0.1881069355269477</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.2073722779749086</v>
+        <v>-0.210388421646392</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.164037777567461</v>
+        <v>1.170648955069916</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.112922823977359</v>
+        <v>1.102768046240746</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.023906786108713</v>
+        <v>0.9475885848138126</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.3623481102434135</v>
+        <v>0.349933172883361</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.01001794241200885</v>
+        <v>0.01047543930162115</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.04438027707814116</v>
+        <v>0.04366676089855367</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3841406432069485</v>
+        <v>0.3851660163994661</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1064994309044688</v>
+        <v>0.09623866938616402</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.09820554215122193</v>
+        <v>0.08141556008109664</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>-2.797866318853326</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0.5582112454388749</v>
+        <v>0.5582112454388805</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>3.330036183555532</v>
@@ -1948,7 +1948,7 @@
         <v>-1.61050766040989</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>2.053486693728851</v>
+        <v>2.053486693728848</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.658643403504537</v>
+        <v>1.649243363324366</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.241429562961776</v>
+        <v>-2.223241473082479</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.647165982857846</v>
+        <v>1.643854607419497</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.9453815056843496</v>
+        <v>0.5711405977432886</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.768915281226553</v>
+        <v>-4.777772981119639</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.298698825270498</v>
+        <v>-1.36558617453546</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>1.767187297090293</v>
+        <v>1.953862434297271</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.059255348152969</v>
+        <v>-2.947466500209492</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.6603247776003114</v>
+        <v>0.8042292577887956</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.642657412412342</v>
+        <v>5.489067357295504</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.513455350114759</v>
+        <v>1.590156216825759</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.99972253445663</v>
+        <v>5.737866088560247</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.013726382037246</v>
+        <v>5.005792358785642</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.7520777042219988</v>
+        <v>-0.6762357946052319</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.550381027699775</v>
+        <v>2.449401312789285</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.730626206442558</v>
+        <v>4.803047406266236</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.2626057814362262</v>
+        <v>-0.2169921681815704</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.382797478424816</v>
+        <v>3.542168740594018</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>-0.1146700095616786</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02287817985462082</v>
+        <v>0.02287817985462105</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.1598798586932388</v>
@@ -2053,7 +2053,7 @@
         <v>-0.07732280461162687</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.09859086938547075</v>
+        <v>0.09859086938547061</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.09079440073219981</v>
+        <v>0.08560127203617841</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1249433650993412</v>
+        <v>-0.1225777623608735</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.09116964706294431</v>
+        <v>0.08933269618845532</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.0399207888102824</v>
+        <v>0.02071646305945221</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1871941079878869</v>
+        <v>-0.1887741536823488</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.05052055576357427</v>
+        <v>-0.05414407888175903</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.08235366074496978</v>
+        <v>0.0912306571263983</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1419154352213391</v>
+        <v>-0.1369011417552388</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.03064726555750061</v>
+        <v>0.03603711435204588</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3449054694379309</v>
+        <v>0.3397199877363531</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.09356031351075261</v>
+        <v>0.09947114654698619</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3652778253572706</v>
+        <v>0.3517157318218078</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2172963559527792</v>
+        <v>0.2095153156502881</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.03086057816526077</v>
+        <v>-0.0303412580999299</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1082971899955961</v>
+        <v>0.103527382357775</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2352089497714202</v>
+        <v>0.238307621843914</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.01242710058009928</v>
+        <v>-0.01014225137775367</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.1672687159602183</v>
+        <v>0.1737257659146848</v>
       </c>
     </row>
     <row r="46">
